--- a/Resources/raw data files/avergae prices of refd.xlsx
+++ b/Resources/raw data files/avergae prices of refd.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kp\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\Bootcamp stuff\Module 20_group_project\Covid-19\Resources\raw data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D937DD-EBB8-4391-859E-DCB3F86D6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A6FFE57-4363-4B72-890D-E927453E14A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,9 +269,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,16 +585,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2D7498-B9D2-46E1-8D92-012A1046576F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
@@ -617,7 +616,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -676,43 +675,43 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>42736</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.08</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>360977</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>505881</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1419717</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>-0.11700000000000001</v>
       </c>
       <c r="N2">
@@ -724,54 +723,54 @@
       <c r="P2">
         <v>-6</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>42767</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>369081</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>569113</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.125</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1450479</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>-0.11700000000000001</v>
       </c>
       <c r="N3">
@@ -783,54 +782,54 @@
       <c r="P3">
         <v>-9</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.97699999999999998</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>42795</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>533610</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>765994</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1526919</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-0.114</v>
       </c>
       <c r="N4">
@@ -842,54 +841,54 @@
       <c r="P4">
         <v>-10</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>42826</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>516823</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>-3.1E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>726350</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>-6.2E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>1588779</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>-0.11600000000000001</v>
       </c>
       <c r="N5">
@@ -901,54 +900,54 @@
       <c r="P5">
         <v>-8</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>42856</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>630788</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.221</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>802283</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.105</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>1647852</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>-0.10199999999999999</v>
       </c>
       <c r="N6">
@@ -960,54 +959,54 @@
       <c r="P6">
         <v>-5</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>42887</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>692305</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>784744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>1707360</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>-0.09</v>
       </c>
       <c r="N7">
@@ -1019,54 +1018,54 @@
       <c r="P7">
         <v>-5</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>42917</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>591551</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>688091</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>-0.123</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1719576</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="N8">
@@ -1078,54 +1077,54 @@
       <c r="P8">
         <v>-5</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>42948</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.06</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>628674</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>680085</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1700155</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>-8.4000000000000005E-2</v>
       </c>
       <c r="N9">
@@ -1137,54 +1136,54 @@
       <c r="P9">
         <v>-5</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>42979</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>535617</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-0.03</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>591731</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>-0.13</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1681111</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>-8.4000000000000005E-2</v>
       </c>
       <c r="N10">
@@ -1196,54 +1195,54 @@
       <c r="P10">
         <v>-5</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>43009</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>526871</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-1.6E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>576212</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1611492</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>-0.08</v>
       </c>
       <c r="N11">
@@ -1255,54 +1254,54 @@
       <c r="P11">
         <v>-6</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>43040</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>495517</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-0.06</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.04</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>460258</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>1485247</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>-7.8E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>-8.1000000000000003E-2</v>
       </c>
       <c r="N12">
@@ -1314,54 +1313,54 @@
       <c r="P12">
         <v>-5</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>43070</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>499712</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>328442</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>-0.01</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>1305624</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>-0.121</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="N13">
@@ -1373,54 +1372,54 @@
       <c r="P13">
         <v>-4</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>0.98</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>43101</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>366400</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>-0.26700000000000002</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>507090</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.54400000000000004</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2E-3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>1293537</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="N14">
@@ -1432,54 +1431,54 @@
       <c r="P14">
         <v>-5</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>43132</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>377984</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>567084</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>1333833</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>-0.08</v>
       </c>
       <c r="N15">
@@ -1491,54 +1490,54 @@
       <c r="P15">
         <v>-6</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>43160</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>520789</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.378</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>-2.4E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>733646</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0.29399999999999998</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1392542</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="N16">
@@ -1550,54 +1549,54 @@
       <c r="P16">
         <v>-4</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>43191</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>545316</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>777897</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.06</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>1472581</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>-7.2999999999999995E-2</v>
       </c>
       <c r="N17">
@@ -1609,54 +1608,54 @@
       <c r="P17">
         <v>-5</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>43221</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>635061</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>841069</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1578555</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="N18">
@@ -1668,54 +1667,54 @@
       <c r="P18">
         <v>-5</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <v>1E-3</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <v>2E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>43252</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>671972</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>784360</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>1653660</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>-3.1E-2</v>
       </c>
       <c r="N19">
@@ -1727,54 +1726,54 @@
       <c r="P19">
         <v>-4</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <v>2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>43282</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>624557</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>721137</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>1676840</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="N20">
@@ -1786,54 +1785,54 @@
       <c r="P20">
         <v>-4</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>43313</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>641479</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.02</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>711641</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>1700903</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21">
@@ -1845,54 +1844,54 @@
       <c r="P21">
         <v>-2</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>43344</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>500018</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>-0.221</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>604205</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>-0.151</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1720825</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>2.4E-2</v>
       </c>
       <c r="N22">
@@ -1904,54 +1903,54 @@
       <c r="P22">
         <v>-3</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>43374</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>530599</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>606698</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>1689164</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="N23">
@@ -1963,54 +1962,54 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>43405</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.03</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>481106</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>465766</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>-0.23200000000000001</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>1586558</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="N24">
@@ -2022,54 +2021,54 @@
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>0.97899999999999998</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>43435</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>445968</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>-0.108</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>319265</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>-0.315</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>1415721</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>-0.108</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="N25">
@@ -2081,54 +2080,54 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>0.97699999999999998</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>43466</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>-0.02</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>337103</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>-0.08</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>534247</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>0.67300000000000004</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>1431209</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>0.106</v>
       </c>
       <c r="N26">
@@ -2140,54 +2139,54 @@
       <c r="P26">
         <v>4</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>43497</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>376211</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>547790</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>1450646</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="N27">
@@ -2199,54 +2198,54 @@
       <c r="P27">
         <v>5</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>43525</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.03</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>492799</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.31</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>715818</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0.307</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>-2.4E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>1506706</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="N28">
@@ -2258,54 +2257,54 @@
       <c r="P28">
         <v>4</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>43556</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>553080</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.122</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>786616</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1577026</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="N29">
@@ -2317,54 +2316,54 @@
       <c r="P29">
         <v>5</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>43586</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>650350</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>840134</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>1672925</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0.06</v>
       </c>
       <c r="N30">
@@ -2376,54 +2375,54 @@
       <c r="P30">
         <v>4</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>43617</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>628366</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>742983</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1713977</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="N31">
@@ -2435,54 +2434,54 @@
       <c r="P31">
         <v>5</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>1E-3</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>43647</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>640812</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.02</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>710969</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>1699444</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N32">
@@ -2494,54 +2493,54 @@
       <c r="P32">
         <v>4</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>43678</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>632565</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>678132</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>-4.7E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>1678831</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="N33">
@@ -2553,54 +2552,54 @@
       <c r="P33">
         <v>3</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>43709</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>536596</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>-0.152</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>625864</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>1671454</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
       <c r="N34">
@@ -2612,54 +2611,54 @@
       <c r="P34">
         <v>3</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>43739</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>547809</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>610395</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>1619656</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>-3.1E-2</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="N35">
@@ -2671,54 +2670,54 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <v>1E-3</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>43770</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>484353</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>442404</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>-0.05</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>1481816</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="N36">
@@ -2730,54 +2729,54 @@
       <c r="P36">
         <v>-1</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1">
         <v>2E-3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>43800</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>515929</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>0.157</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>325069</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>1282789</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>-9.4E-2</v>
       </c>
       <c r="N37">
@@ -2789,54 +2788,54 @@
       <c r="P37">
         <v>-1</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1">
         <v>0.98</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <v>2E-3</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>43831</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>-1.9E-2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>381306</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>532712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>1276101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>-0.108</v>
       </c>
       <c r="N38">
@@ -2848,54 +2847,54 @@
       <c r="P38">
         <v>-1</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="1">
         <v>0.97699999999999998</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>43862</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>409559</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>586832</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>1292825</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>-0.109</v>
       </c>
       <c r="N39">
@@ -2907,54 +2906,54 @@
       <c r="P39">
         <v>-3</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="1">
         <v>0.98099999999999998</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>43891</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>512443</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>0.251</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>0.04</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>668305</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>1347189</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>-0.106</v>
       </c>
       <c r="N40">
@@ -2966,54 +2965,54 @@
       <c r="P40">
         <v>-6</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>43922</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>442444</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>-0.2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>476882</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>1329607</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>-0.157</v>
       </c>
       <c r="N41">
@@ -3025,54 +3024,54 @@
       <c r="P41">
         <v>-6</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>43952</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>428048</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>-0.34200000000000003</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>641937</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>-0.23599999999999999</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>1324459</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>-0.20799999999999999</v>
       </c>
       <c r="N42">
@@ -3084,54 +3083,54 @@
       <c r="P42">
         <v>2</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>43983</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>0.04</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>596048</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>719466</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>0.121</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>1261539</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>-0.26400000000000001</v>
       </c>
       <c r="N43">
@@ -3143,54 +3142,54 @@
       <c r="P43">
         <v>3</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>44013</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>712170</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>0.111</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>762284</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>0.06</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>1226268</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>-0.27800000000000002</v>
       </c>
       <c r="N44">
@@ -3202,54 +3201,54 @@
       <c r="P44">
         <v>-1</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="1">
         <v>0.99</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>44044</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>0.109</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>673302</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>-5.5E-2</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>719793</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>-5.6000000000000001E-2</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>1180146</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>-0.29699999999999999</v>
       </c>
       <c r="N45">
@@ -3261,54 +3260,54 @@
       <c r="P45">
         <v>-8</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>44075</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0.01</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>670101</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>0.249</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>704390</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>0.125</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>1156011</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>-0.02</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>-0.308</v>
       </c>
       <c r="N46">
@@ -3320,54 +3319,54 @@
       <c r="P46">
         <v>-12</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="1">
         <v>2E-3</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="1">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>44105</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>681181</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>0.24299999999999999</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>689018</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>0.129</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>1121302</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>-0.308</v>
       </c>
       <c r="N47">
@@ -3379,54 +3378,54 @@
       <c r="P47">
         <v>-15</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="1">
         <v>0.995</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="1">
         <v>1E-3</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>44136</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>590703</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>0.22</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>496860</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>-0.27900000000000003</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>0.123</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>996991</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>-0.111</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>-0.32700000000000001</v>
       </c>
       <c r="N48">
@@ -3438,54 +3437,54 @@
       <c r="P48">
         <v>-17</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="1">
         <v>0.995</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="1">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>44166</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>0.128</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>636170</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>396621</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>0.22</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>834029</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>-0.16300000000000001</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>-0.35</v>
       </c>
       <c r="N49">
@@ -3497,54 +3496,54 @@
       <c r="P49">
         <v>-20</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="1">
         <v>-2E-3</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="1">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>44197</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>436950</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>-0.313</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>499586</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.26</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>-6.2E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>777003</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>-0.39100000000000001</v>
       </c>
       <c r="N50">
@@ -3556,54 +3555,54 @@
       <c r="P50">
         <v>-22</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="1">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>44228</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>441458</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0.01</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>507735</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>729003</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>-6.2E-2</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>-0.436</v>
       </c>
       <c r="N51">
@@ -3615,54 +3614,54 @@
       <c r="P51">
         <v>-23</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="1">
         <v>0.998</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>44256</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>594218</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>0.16</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>705117</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>722545</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>-0.46400000000000002</v>
       </c>
       <c r="N52">
@@ -3674,54 +3673,54 @@
       <c r="P52">
         <v>-18</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1">
         <v>1.006</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>44287</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.215</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>627547</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>764681</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>0.60399999999999998</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>778150</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>-0.41499999999999998</v>
       </c>
       <c r="N53">
@@ -3733,54 +3732,54 @@
       <c r="P53">
         <v>-16</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>1.0149999999999999</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="1">
         <v>0.01</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>44317</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>635092</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>746361</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>-2.4E-2</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>0.16300000000000001</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>798265</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>-0.39700000000000002</v>
       </c>
       <c r="N54">
@@ -3792,54 +3791,54 @@
       <c r="P54">
         <v>-22</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>1.022</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>44348</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>732963</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>0.154</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>0.23</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>812746</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>0.13</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>870020</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>0.09</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>-0.31</v>
       </c>
       <c r="N55">
@@ -3851,54 +3850,54 @@
       <c r="P55">
         <v>-24</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>44378</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>0.19</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>682497</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>799597</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>-1.6E-2</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>967675</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <v>0.112</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>-0.21099999999999999</v>
       </c>
       <c r="N56">
@@ -3910,54 +3909,54 @@
       <c r="P56">
         <v>-20</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="1">
         <v>1.0229999999999999</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>44409</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>-0.01</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>0.161</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>677156</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>722127</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>958737</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <v>-0.188</v>
       </c>
       <c r="N57">
@@ -3969,54 +3968,54 @@
       <c r="P57">
         <v>-15</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="1">
         <v>1.016</v>
       </c>
-      <c r="R57" s="2">
+      <c r="R57" s="1">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="1">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>44440</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>642162</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>678544</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="1">
         <v>-0.06</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>961277</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <v>-0.16800000000000001</v>
       </c>
       <c r="N58">
@@ -4028,54 +4027,54 @@
       <c r="P58">
         <v>-11</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="1">
         <v>1.01</v>
       </c>
-      <c r="R58" s="2">
+      <c r="R58" s="1">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="1">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>44470</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>615470</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>620575</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>905244</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <v>-0.193</v>
       </c>
       <c r="N59">
@@ -4087,54 +4086,54 @@
       <c r="P59">
         <v>-8</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="1">
         <v>1.008</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R59" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="1">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>44501</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>593248</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>485821</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <v>-0.217</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>772449</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <v>-0.22500000000000001</v>
       </c>
       <c r="N60">
@@ -4146,54 +4145,54 @@
       <c r="P60">
         <v>-6</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="1">
         <v>1.006</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R60" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>44531</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>597974</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>-0.06</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>362837</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>-0.253</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>616866</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <v>-0.26</v>
       </c>
       <c r="N61">
@@ -4205,54 +4204,54 @@
       <c r="P61">
         <v>-6</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="1">
         <v>1.0049999999999999</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R61" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>44562</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>415785</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>446820</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>-0.106</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <v>574426</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <v>-0.26100000000000001</v>
       </c>
       <c r="N62">
@@ -4264,54 +4263,54 @@
       <c r="P62">
         <v>-7</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="1">
         <v>1.004</v>
       </c>
-      <c r="R62" s="2">
+      <c r="R62" s="1">
         <v>-1E-3</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>44593</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>0.161</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>414726</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>489053</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>553640</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>-0.24099999999999999</v>
       </c>
       <c r="N63">
@@ -4323,18 +4322,18 @@
       <c r="P63">
         <v>-8</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63" s="1">
         <v>1.0129999999999999</v>
       </c>
-      <c r="R63" s="2">
+      <c r="R63" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S63">
+  <sortState ref="A2:S63">
     <sortCondition ref="A2:A63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
